--- a/training/output/Resnet34_ViT/W/W0_W3.xlsx
+++ b/training/output/Resnet34_ViT/W/W0_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3752185314685315</v>
+        <v>0.5408333333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.337177168239247</v>
+        <v>2.604992687702179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7104458041958042</v>
+        <v>0.86625</v>
       </c>
       <c r="B3" t="n">
-        <v>2.599776051261208</v>
+        <v>1.970799386501312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7899912587412588</v>
+        <v>0.8966666666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2.305217862129211</v>
+        <v>1.695571780204773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8319493006993007</v>
+        <v>0.8964583333333334</v>
       </c>
       <c r="B5" t="n">
-        <v>2.100821148265492</v>
+        <v>1.55731263756752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8262674825174826</v>
+        <v>0.9139583333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>1.929023645140908</v>
+        <v>1.410012364387512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8601398601398601</v>
+        <v>0.944375</v>
       </c>
       <c r="B7" t="n">
-        <v>1.839479755271565</v>
+        <v>1.361042827367783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8594842657342657</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.776592709801414</v>
+        <v>1.269602596759796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.9545833333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>1.722938792272048</v>
+        <v>1.220459133386612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.9420833333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>1.6478720090606</v>
+        <v>1.200879603624344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.954375</v>
       </c>
       <c r="B11" t="n">
-        <v>1.583570166067644</v>
+        <v>1.105067998170853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.847465034965035</v>
+        <v>0.951875</v>
       </c>
       <c r="B12" t="n">
-        <v>1.611091949722984</v>
+        <v>1.067049443721771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8538024475524476</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.590095552531156</v>
+        <v>1.082211941480637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8452797202797203</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.572268588976427</v>
+        <v>1.080746561288834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8452797202797203</v>
+        <v>0.94625</v>
       </c>
       <c r="B15" t="n">
-        <v>1.545538685538552</v>
+        <v>1.024799942970276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8629807692307693</v>
+        <v>0.964375</v>
       </c>
       <c r="B16" t="n">
-        <v>1.552806756713174</v>
+        <v>0.9981410056352615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>1.506053550676866</v>
+        <v>0.9626882076263428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.865166083916084</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>1.537340028719469</v>
+        <v>0.9447935968637466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B19" t="n">
-        <v>1.480958629738201</v>
+        <v>0.9455531388521194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B20" t="n">
-        <v>1.479139978235418</v>
+        <v>0.943695068359375</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>1.465781027620489</v>
+        <v>0.9434179365634918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.868006993006993</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>1.462974093177102</v>
+        <v>0.9218028634786606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9620833333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>1.46107108484615</v>
+        <v>0.9242344349622726</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>1.457445827397433</v>
+        <v>0.9107516258955002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>1.443612705577504</v>
+        <v>0.8962460160255432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8645104895104896</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.472660303115845</v>
+        <v>0.8933039754629135</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8645104895104896</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>1.454318431290713</v>
+        <v>0.8921557515859604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8623251748251749</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>1.442184117707339</v>
+        <v>0.8654381334781647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8623251748251749</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.455537828532132</v>
+        <v>0.8545297533273697</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8559877622377623</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.475346511060541</v>
+        <v>0.8579259812831879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.868006993006993</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>1.44277989322489</v>
+        <v>0.8679918646812439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8623251748251749</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B32" t="n">
-        <v>1.438014344735579</v>
+        <v>0.8573490977287292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8481206293706294</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B33" t="n">
-        <v>1.440052959051999</v>
+        <v>0.8416236639022827</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8531468531468532</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>1.46180228211663</v>
+        <v>0.8453680127859116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.961875</v>
       </c>
       <c r="B35" t="n">
-        <v>1.442450214516033</v>
+        <v>0.8242379575967789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.432494093071331</v>
+        <v>0.8309956043958664</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.868006993006993</v>
+        <v>0.971875</v>
       </c>
       <c r="B37" t="n">
-        <v>1.431840945373882</v>
+        <v>0.8175720721483231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.868006993006993</v>
+        <v>0.964375</v>
       </c>
       <c r="B38" t="n">
-        <v>1.433022211898457</v>
+        <v>0.8166008591651917</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.418175686489452</v>
+        <v>0.8313452750444412</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1.418974069031802</v>
+        <v>0.8993696570396423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>1.421525001525879</v>
+        <v>0.8381991982460022</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.424654326655648</v>
+        <v>0.8160008043050766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>1.413947360082106</v>
+        <v>0.8128968626260757</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.427703570235859</v>
+        <v>0.8016596734523773</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9897916666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.42445689981634</v>
+        <v>0.7951945066452026</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.414097878065976</v>
+        <v>0.8630968332290649</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>1.420831057158384</v>
+        <v>0.8246225863695145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.868006993006993</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.412576686252247</v>
+        <v>0.8004412204027176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>1.414399233731356</v>
+        <v>0.7966933101415634</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>1.412233764475042</v>
+        <v>0.7947535365819931</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.411143405870958</v>
+        <v>0.8104303032159805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.974375</v>
       </c>
       <c r="B52" t="n">
-        <v>1.414950311183929</v>
+        <v>0.8163221627473831</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.406800909475847</v>
+        <v>0.7810375541448593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.415004524317655</v>
+        <v>0.7902576327323914</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>1.412987665696578</v>
+        <v>0.786338210105896</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.409704311327501</v>
+        <v>0.7810786664485931</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.409530092369426</v>
+        <v>0.7801693826913834</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.408187373117967</v>
+        <v>0.7766614854335785</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.408488327806646</v>
+        <v>0.7793769985437393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.403502914038572</v>
+        <v>0.7709062397480011</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.961875</v>
       </c>
       <c r="B61" t="n">
-        <v>1.404324108904058</v>
+        <v>0.8242034018039703</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.40591926466335</v>
+        <v>0.7771640419960022</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>1.404470134865154</v>
+        <v>0.7887668907642365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.951875</v>
       </c>
       <c r="B64" t="n">
-        <v>1.429829115217382</v>
+        <v>0.7909771054983139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B65" t="n">
-        <v>1.410055084662004</v>
+        <v>0.77553491294384</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.409146856177937</v>
+        <v>0.7791848927736282</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.959375</v>
       </c>
       <c r="B67" t="n">
-        <v>1.405113426121798</v>
+        <v>0.7778805643320084</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8913898601398601</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>1.408729103478518</v>
+        <v>0.7775815427303314</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>1.404904506423257</v>
+        <v>0.7818689495325089</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.406138777732849</v>
+        <v>0.7711148113012314</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B71" t="n">
-        <v>1.413097435777838</v>
+        <v>0.7676470279693604</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.403589649633928</v>
+        <v>0.7721883654594421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.407452274452556</v>
+        <v>0.7825593203306198</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9647916666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.413201088255102</v>
+        <v>0.7854263484477997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.959375</v>
       </c>
       <c r="B75" t="n">
-        <v>1.406622588634491</v>
+        <v>0.7741302698850632</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.412336631254716</v>
+        <v>0.7742123454809189</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.406809259544719</v>
+        <v>0.7617151290178299</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.409728315743533</v>
+        <v>0.7732642740011215</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>1.414425616914576</v>
+        <v>0.7560319900512695</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.868006993006993</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B80" t="n">
-        <v>1.404571175575256</v>
+        <v>0.7651836425065994</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.868006993006993</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>1.403281060132113</v>
+        <v>0.7734048217535019</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.961875</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40345144813711</v>
+        <v>0.7537694871425629</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.406998320059343</v>
+        <v>0.7540006190538406</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.961875</v>
       </c>
       <c r="B84" t="n">
-        <v>1.402175626971505</v>
+        <v>0.7521989792585373</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.961875</v>
       </c>
       <c r="B85" t="n">
-        <v>1.400331480936571</v>
+        <v>0.7611825317144394</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.961875</v>
       </c>
       <c r="B86" t="n">
-        <v>1.402147834951227</v>
+        <v>0.7539454698562622</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>1.404083891348405</v>
+        <v>0.7732862830162048</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8828671328671329</v>
+        <v>0.959375</v>
       </c>
       <c r="B88" t="n">
-        <v>1.412113682790236</v>
+        <v>0.7572878748178482</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8771853146853147</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.402956128120422</v>
+        <v>0.7662852853536606</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8913898601398601</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.405783620747653</v>
+        <v>0.7668558210134506</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>1.40320348739624</v>
+        <v>0.7551864087581635</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.964375</v>
       </c>
       <c r="B92" t="n">
-        <v>1.407897125590931</v>
+        <v>0.7559251934289932</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399677883494984</v>
+        <v>0.7498633116483688</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.399333146485415</v>
+        <v>0.7579908519983292</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.961875</v>
       </c>
       <c r="B95" t="n">
-        <v>1.406073169274764</v>
+        <v>0.7453343421220779</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.403207594698126</v>
+        <v>0.7471436858177185</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.413754278963262</v>
+        <v>0.7468612790107727</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8616695804195804</v>
+        <v>0.961875</v>
       </c>
       <c r="B98" t="n">
-        <v>1.400988372889432</v>
+        <v>0.754397377371788</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.407093887979334</v>
+        <v>0.7506844848394394</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.400896473364396</v>
+        <v>0.7599966078996658</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B101" t="n">
-        <v>1.404244525866075</v>
+        <v>0.7426889985799789</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7429693937301636</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7461671829223633</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7493629455566406</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7543947100639343</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7438546568155289</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7427887320518494</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7732693403959274</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7454669028520584</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7446321547031403</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7486912310123444</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7492716461420059</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7403148859739304</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7359095364809036</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7527745813131332</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7498580068349838</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.738212451338768</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7352247834205627</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7487737387418747</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.740533247590065</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7402754873037338</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7382801324129105</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7403512597084045</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.745381087064743</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7481660097837448</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7436644583940506</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7340285032987595</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7400268912315369</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7471384257078171</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7487628757953644</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7393278926610947</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7409408390522003</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7329203337430954</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.738169252872467</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7381092309951782</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7341146022081375</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7522219717502594</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7446027249097824</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7332437187433243</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7408736348152161</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7353444695472717</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7401994168758392</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7380406260490417</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7423030883073807</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7314787209033966</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7454178035259247</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7351872473955154</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7291772961616516</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7464232891798019</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.971875</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7359721809625626</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7302428483963013</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7337867766618729</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7521486431360245</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7273907363414764</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7333978563547134</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.731841653585434</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7296305745840073</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.735773503780365</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7461898773908615</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7381499856710434</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7287150472402573</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7312022745609283</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7344785183668137</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7382285892963409</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7317178696393967</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7452179938554764</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.971875</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7294594794511795</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.728239119052887</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7287086099386215</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7431496381759644</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7311338931322098</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.725722536444664</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7306607961654663</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7299866080284119</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7302095741033554</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7264923602342606</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7314059883356094</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7324647307395935</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7309293299913406</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7285340130329132</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7363800406455994</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7225678563117981</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7274796664714813</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7324608862400055</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7277123183012009</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7258321493864059</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7248606532812119</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7337312996387482</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7272771149873734</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7300615459680557</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7200586199760437</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7225533574819565</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7242937684059143</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7308835834264755</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7261724472045898</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7234907299280167</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7239362299442291</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.732550248503685</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7239481657743454</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7206666022539139</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7206762582063675</v>
       </c>
     </row>
   </sheetData>
